--- a/biology/Zoologie/Brachygobius/Brachygobius.xlsx
+++ b/biology/Zoologie/Brachygobius/Brachygobius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachygobius (synonyme de Hypogymnogobius) est un genre de poissons regroupant 8 des nombreuses espèces de gobies appelées Poissons bourdons.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont de petits poissons, mesurant de 1,4 à 5 cm[1]. Ils sont généralement noirs rayés d'orange, ce qui leur a valu leur nom de Poissons bourdons.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont de petits poissons, mesurant de 1,4 à 5 cm. Ils sont généralement noirs rayés d'orange, ce qui leur a valu leur nom de Poissons bourdons.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve les espèces de ce genre en Asie du Sud-Est[2] : au Cambodge, en Thaïlande, en Malaisie, en Indonésie, etc.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve les espèces de ce genre en Asie du Sud-Est : au Cambodge, en Thaïlande, en Malaisie, en Indonésie, etc.
 Ces poissons sont aussi appréciés en aquarium.
 </t>
         </is>
@@ -574,9 +590,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (17 déc. 2015)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (17 déc. 2015) :
 Brachygobius aggregatus Herre, 1940
 Brachygobius doriae (Günther, 1868) — Poisson-abeille de Doria
 Brachygobius kabiliensis Inger, 1958
@@ -584,7 +602,7 @@
 Brachygobius sabanus Inger, 1958
 Brachygobius sua Smith, 1931
 Brachygobius xanthozonus (Bleeker, 1849) — Gobie abeille
-Selon ITIS      (17 déc. 2015)[4] :
+Selon ITIS      (17 déc. 2015) :
 Brachygobius aggregatus Herre, 1940
 Brachygobius doriae (Günther, 1868) — Poisson-abeille de Doria
 Brachygobius kabiliensis Inger, 1958
